--- a/reports/_UNITED ARAB SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_19_.xlsx
+++ b/reports/_UNITED ARAB SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_19_.xlsx
@@ -1874,10 +1874,10 @@
           <t>2015-5460</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2015-05-20T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2015-05-21T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">

--- a/reports/_UNITED ARAB SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_19_.xlsx
+++ b/reports/_UNITED ARAB SHIPPING CO._SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_19_.xlsx
@@ -1627,7 +1627,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:8</t>
+          <t>Total number of containers:8</t>
         </is>
       </c>
     </row>
